--- a/ITcoach/openpyxl处理数据/1.11 循环方式批量写入数据/demo.xlsx
+++ b/ITcoach/openpyxl处理数据/1.11 循环方式批量写入数据/demo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python\ITcoach\openpyxl处理数据\1.11 循环方式批量写入数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B915CFB9-B09C-49C4-908E-7BF141BE9A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16253" windowHeight="9241"/>
+    <workbookView xWindow="2580" yWindow="3540" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成绩表" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>姓名</t>
   </si>
@@ -239,6 +245,10 @@
   </si>
   <si>
     <t>秘鸿朗</t>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否优秀</t>
@@ -248,7 +258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,23 +569,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,8 +604,11 @@
       <c r="F1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -612,7 +625,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -629,7 +642,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -646,7 +659,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -663,7 +676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -680,7 +693,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -697,7 +710,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -714,7 +727,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -731,7 +744,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -748,7 +761,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -765,7 +778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -782,7 +795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -799,7 +812,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -816,7 +829,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -833,7 +846,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -850,7 +863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -867,7 +880,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -884,7 +897,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -901,7 +914,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -918,7 +931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -935,7 +948,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -952,7 +965,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -969,7 +982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -986,7 +999,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1003,7 +1016,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1020,7 +1033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1037,7 +1050,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1054,7 +1067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1071,7 +1084,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1088,7 +1101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1105,7 +1118,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1122,7 +1135,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1139,7 +1152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1156,7 +1169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1173,7 +1186,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1190,7 +1203,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1207,7 +1220,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1224,7 +1237,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1241,7 +1254,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1258,7 +1271,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1275,7 +1288,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1292,7 +1305,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1309,7 +1322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1326,7 +1339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1343,7 +1356,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1360,7 +1373,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1377,7 +1390,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1394,7 +1407,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1411,7 +1424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1428,7 +1441,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1445,7 +1458,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1462,7 +1475,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1479,7 +1492,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1496,7 +1509,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1513,7 +1526,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1530,7 +1543,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1547,7 +1560,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -1564,7 +1577,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -1581,7 +1594,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1598,7 +1611,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -1615,7 +1628,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1632,7 +1645,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -1649,7 +1662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -1666,7 +1679,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -1683,7 +1696,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -1700,7 +1713,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -1717,7 +1730,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -1734,7 +1747,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -1751,7 +1764,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -1768,7 +1781,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
